--- a/mmf1.xlsx
+++ b/mmf1.xlsx
@@ -427,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -442,6 +442,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,9 +463,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1255119652648708"/>
-          <c:y val="3.4853938712206427E-2"/>
+          <c:y val="3.4853938712206441E-2"/>
           <c:w val="0.85916714867056898"/>
-          <c:h val="0.95193714422060882"/>
+          <c:h val="0.95193714422060871"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -479,117 +480,129 @@
           </c:spPr>
           <c:yVal>
             <c:numRef>
-              <c:f>Sayfa1!$A$11:$AC$11</c:f>
+              <c:f>Sayfa1!$A$11:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-7.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-7.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-7.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="159027584"/>
-        <c:axId val="158992640"/>
+        <c:axId val="127559936"/>
+        <c:axId val="127569920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159027584"/>
+        <c:axId val="127559936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158992640"/>
+        <c:crossAx val="127569920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158992640"/>
+        <c:axId val="127569920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,9 +610,1571 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159027584"/>
+        <c:crossAx val="127559936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0619060548465918E-2"/>
+          <c:y val="3.3797624611991997E-2"/>
+          <c:w val="0.83363381301475248"/>
+          <c:h val="0.93240475077601603"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sayfa1!$8:$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$A$11:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="132720128"/>
+        <c:axId val="135627136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132720128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135627136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135627136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132720128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8252185847825785E-2"/>
+          <c:y val="1.4767134960127859E-2"/>
+          <c:w val="0.83309167562274267"/>
+          <c:h val="0.94626730758824418"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>layer1 MMF</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sayfa1!$A$8:$BR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$A$9:$BR$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>layer2 MMF</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sayfa1!$A$8:$BR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$A$10:$BR$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Total MMF</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sayfa1!$A$5:$BP$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$A$11:$BR$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="127884288"/>
+        <c:axId val="127886080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="127884288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127886080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127886080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127884288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -643,6 +2218,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Grafik"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="7 Grafik"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -936,15 +2571,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="56" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="63" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" thickBot="1">
+    <row r="1" spans="1:70" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +2612,7 @@
       </c>
       <c r="E1" s="2">
         <f>-C2</f>
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="F1" s="2">
         <f>-C3</f>
@@ -1009,17 +2661,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1">
+    <row r="2" spans="1:70" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <f>-C10</f>
-        <v>-2.5</v>
+        <f>-E10</f>
+        <v>-0.5</v>
       </c>
       <c r="C2" s="4">
-        <f>-C11</f>
-        <v>-7.5</v>
+        <f>-E11</f>
+        <v>-1.5</v>
       </c>
       <c r="D2" s="4">
         <f>-C12</f>
@@ -1061,7 +2713,7 @@
       </c>
       <c r="O2" s="4">
         <f>-B2</f>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="P2" s="4">
         <f>-B3</f>
@@ -1074,358 +2726,1082 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="8" spans="1:70" s="6" customFormat="1">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6">
+        <v>101</v>
+      </c>
+      <c r="D8" s="6">
+        <v>200</v>
+      </c>
+      <c r="E8" s="6">
+        <v>201</v>
+      </c>
+      <c r="F8" s="6">
+        <v>300</v>
+      </c>
+      <c r="G8" s="6">
+        <v>301</v>
+      </c>
+      <c r="H8" s="6">
+        <v>400</v>
+      </c>
+      <c r="I8" s="6">
+        <v>401</v>
+      </c>
+      <c r="J8" s="6">
+        <v>500</v>
+      </c>
+      <c r="K8" s="6">
+        <v>501</v>
+      </c>
+      <c r="L8" s="6">
+        <v>600</v>
+      </c>
+      <c r="M8" s="6">
+        <v>601</v>
+      </c>
+      <c r="N8" s="6">
+        <v>700</v>
+      </c>
+      <c r="O8" s="6">
+        <v>701</v>
+      </c>
+      <c r="P8" s="6">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>801</v>
+      </c>
+      <c r="R8" s="6">
+        <v>900</v>
+      </c>
+      <c r="S8" s="6">
+        <v>901</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1001</v>
+      </c>
+      <c r="V8" s="6">
+        <v>1100</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1101</v>
+      </c>
+      <c r="X8" s="6">
+        <v>1200</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>1201</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>1300</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>1301</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>1400</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>1401</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>1500</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>1501</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>1600</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>1601</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>1700</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>1701</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>1800</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>1801</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>1900</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>1901</v>
+      </c>
+      <c r="AP8" s="6">
+        <v>2000</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>2001</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>2100</v>
+      </c>
+      <c r="AS8" s="6">
+        <v>2101</v>
+      </c>
+      <c r="AT8" s="6">
+        <v>2200</v>
+      </c>
+      <c r="AU8" s="6">
+        <v>2201</v>
+      </c>
+      <c r="AV8" s="6">
+        <v>2300</v>
+      </c>
+      <c r="AW8" s="6">
+        <v>2301</v>
+      </c>
+      <c r="AX8" s="6">
+        <v>2400</v>
+      </c>
+      <c r="AY8" s="6">
+        <v>2401</v>
+      </c>
+      <c r="AZ8" s="6">
+        <v>2500</v>
+      </c>
+      <c r="BA8" s="6">
+        <v>2501</v>
+      </c>
+      <c r="BB8" s="6">
+        <v>2600</v>
+      </c>
+      <c r="BC8" s="6">
+        <v>2601</v>
+      </c>
+      <c r="BD8" s="6">
+        <v>2700</v>
+      </c>
+      <c r="BE8" s="6">
+        <v>2701</v>
+      </c>
+      <c r="BF8" s="6">
+        <v>2800</v>
+      </c>
+      <c r="BG8" s="6">
+        <v>2801</v>
+      </c>
+      <c r="BH8" s="6">
+        <v>2900</v>
+      </c>
+      <c r="BI8" s="6">
+        <v>2901</v>
+      </c>
+      <c r="BJ8" s="6">
+        <v>3000</v>
+      </c>
+      <c r="BK8" s="6">
+        <v>3001</v>
+      </c>
+      <c r="BL8" s="6">
+        <v>3100</v>
+      </c>
+      <c r="BM8" s="6">
+        <v>3101</v>
+      </c>
+      <c r="BN8" s="6">
+        <v>3200</v>
+      </c>
+      <c r="BO8" s="6">
+        <v>3201</v>
+      </c>
+      <c r="BP8" s="6">
+        <v>3300</v>
+      </c>
+      <c r="BQ8" s="6">
+        <v>3301</v>
+      </c>
+      <c r="BR8" s="6">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70">
       <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="N9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="R9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="S9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="T9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="U9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="V9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="W9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="X9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AK9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="AL9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="AM9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="J9" s="5">
-        <v>-5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>-5</v>
-      </c>
-      <c r="L9" s="5">
-        <v>-5</v>
-      </c>
-      <c r="M9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="N9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="O9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="P9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="AN9" s="5">
         <v>5</v>
       </c>
-      <c r="T9" s="5">
+      <c r="AO9" s="5">
         <v>5</v>
       </c>
-      <c r="U9" s="5">
+      <c r="AP9" s="5">
         <v>5</v>
       </c>
-      <c r="V9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="W9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="X9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>-5</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>-5</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>-5</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="AJ9" s="5">
+      <c r="AQ9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BC9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BD9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BE9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BF9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BG9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BH9" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BI9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BJ9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BK9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BL9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BM9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BN9" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BO9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BP9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BQ9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BR9" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:70">
       <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="N10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="P10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="R10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="S10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="T10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="U10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="V10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="W10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="X10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AG10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>-5</v>
-      </c>
-      <c r="J10" s="5">
-        <v>-5</v>
-      </c>
-      <c r="K10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="L10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="N10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="O10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="P10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="AH10" s="5">
         <v>5</v>
       </c>
-      <c r="R10" s="5">
+      <c r="AK10" s="5">
         <v>5</v>
       </c>
-      <c r="S10" s="5">
+      <c r="AL10" s="5">
         <v>5</v>
       </c>
-      <c r="T10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="U10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="V10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="W10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="X10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>-5</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>-5</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>-5</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>-2.5</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="AI10" s="5">
+      <c r="AM10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AT10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AU10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AX10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AY10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AZ10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BA10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BB10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BC10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BD10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="BE10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BF10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BG10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BH10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BI10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BJ10" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="BK10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BL10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BM10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BN10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BO10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BP10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="BQ10" s="5">
         <v>5</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="BR10" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:70">
       <c r="A11" s="5">
         <f>A9+A10</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+B10</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11:S11" si="0">C9+C10</f>
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11" si="1">D9+D10</f>
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="5">
+        <f>E9+E10</f>
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="5">
+        <f>F9+F10</f>
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="5">
+        <f>G9+G10</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <f>H9+H10</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <f>I9+I10</f>
+        <v>-2</v>
+      </c>
+      <c r="J11" s="5">
+        <f>J9+J10</f>
+        <v>-2</v>
+      </c>
+      <c r="K11" s="5">
+        <f>K9+K10</f>
+        <v>-2</v>
+      </c>
+      <c r="L11" s="5">
+        <f>L9+L10</f>
+        <v>-2</v>
+      </c>
+      <c r="M11" s="5">
+        <f>M9+M10</f>
+        <v>-5</v>
+      </c>
+      <c r="N11" s="5">
+        <f>N9+N10</f>
+        <v>-5</v>
+      </c>
+      <c r="O11" s="5">
+        <f>O9+O10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="P11" s="5">
+        <f>P9+P10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="Q11" s="5">
+        <f>Q9+Q10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="R11" s="5">
+        <f>R9+R10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="S11" s="5">
+        <f>S9+S10</f>
+        <v>-10</v>
+      </c>
+      <c r="T11" s="5">
+        <f>T9+T10</f>
+        <v>-10</v>
+      </c>
+      <c r="U11" s="5">
+        <f>U9+U10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="V11" s="5">
+        <f>V9+V10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="W11" s="5">
+        <f>W9+W10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="X11" s="5">
+        <f>X9+X10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="Y11" s="5">
+        <f>Y9+Y10</f>
+        <v>-5</v>
+      </c>
+      <c r="Z11" s="5">
+        <f>Z9+Z10</f>
+        <v>-5</v>
+      </c>
+      <c r="AA11" s="5">
+        <f>AA9+AA10</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <f>AB9+AB10</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <f>AC9+AC10</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <f>AD9+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
+        <f>AE9+AE10</f>
+        <v>5</v>
+      </c>
+      <c r="AF11" s="5">
+        <f>AF9+AF10</f>
+        <v>5</v>
+      </c>
+      <c r="AG11" s="5">
+        <f>AG9+AG10</f>
+        <v>7.5</v>
+      </c>
+      <c r="AH11" s="5">
+        <f>AH9+AH10</f>
+        <v>7.5</v>
+      </c>
+      <c r="AK11" s="5">
+        <f>AK9+AK10</f>
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <f t="shared" ref="B11:R11" si="0">B9+B10</f>
+      <c r="AL11" s="5">
+        <f>AL9+AL10</f>
+        <v>10</v>
+      </c>
+      <c r="AM11" s="5">
+        <f t="shared" ref="AM11:BC11" si="2">AM9+AM10</f>
         <v>7.5</v>
       </c>
-      <c r="C11" s="5">
-        <f t="shared" si="0"/>
+      <c r="AN11" s="5">
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
+      <c r="AO11" s="5">
+        <f>AO9+AO10</f>
+        <v>7.5</v>
+      </c>
+      <c r="AP11" s="5">
+        <f>AP9+AP10</f>
+        <v>7.5</v>
+      </c>
+      <c r="AQ11" s="5">
+        <f>AQ9+AQ10</f>
         <v>5</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
+      <c r="AR11" s="5">
+        <f>AR9+AR10</f>
+        <v>5</v>
+      </c>
+      <c r="AS11" s="5">
+        <f>AS9+AS10</f>
         <v>0</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
+      <c r="AT11" s="5">
+        <f>AT9+AT10</f>
         <v>0</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
+      <c r="AU11" s="5">
+        <f>AU9+AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="5">
+        <f>AV9+AV10</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="5">
+        <f>AW9+AW10</f>
+        <v>-5</v>
+      </c>
+      <c r="AX11" s="5">
+        <f>AX9+AX10</f>
+        <v>-5</v>
+      </c>
+      <c r="AY11" s="5">
+        <f>AY9+AY10</f>
         <v>-7.5</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
+      <c r="AZ11" s="5">
+        <f>AZ9+AZ10</f>
         <v>-7.5</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="0"/>
+      <c r="BA11" s="5">
+        <f>BA9+BA10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="BB11" s="5">
+        <f>BB9+BB10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="BC11" s="5">
+        <f>BC9+BC10</f>
         <v>-10</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="0"/>
+      <c r="BD11" s="5">
+        <f>BD9+BD10</f>
+        <v>-10</v>
+      </c>
+      <c r="BE11" s="5">
+        <f>BE9+BE10</f>
         <v>-7.5</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="0"/>
+      <c r="BF11" s="5">
+        <f>BF9+BF10</f>
         <v>-7.5</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="0"/>
+      <c r="BG11" s="5">
+        <f>BG9+BG10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="BH11" s="5">
+        <f>BH9+BH10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="BI11" s="5">
+        <f>BI9+BI10</f>
+        <v>-5</v>
+      </c>
+      <c r="BJ11" s="5">
+        <f>BJ9+BJ10</f>
+        <v>-5</v>
+      </c>
+      <c r="BK11" s="5">
+        <f>BK9+BK10</f>
         <v>0</v>
       </c>
-      <c r="O11" s="5">
-        <f t="shared" si="0"/>
+      <c r="BL11" s="5">
+        <f>BL9+BL10</f>
         <v>0</v>
       </c>
-      <c r="P11" s="5">
-        <f t="shared" si="0"/>
+      <c r="BM11" s="5">
+        <f>BM9+BM10</f>
+        <v>0</v>
+      </c>
+      <c r="BN11" s="5">
+        <f>BN9+BN10</f>
+        <v>0</v>
+      </c>
+      <c r="BO11" s="5">
+        <f>BO9+BO10</f>
         <v>5</v>
       </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="0"/>
+      <c r="BP11" s="5">
+        <f>BP9+BP10</f>
+        <v>5</v>
+      </c>
+      <c r="BQ11" s="5">
+        <f>BQ9+BQ10</f>
         <v>7.5</v>
       </c>
-      <c r="R11" s="5">
-        <f t="shared" si="0"/>
+      <c r="BR11" s="5">
+        <f>BR9+BR10</f>
         <v>7.5</v>
       </c>
-      <c r="S11" s="5">
-        <f t="shared" ref="S11" si="1">S9+S10</f>
+    </row>
+    <row r="15" spans="1:70">
+      <c r="AC15" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70">
+      <c r="AC16" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>5</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="29:46">
+      <c r="AC17" s="5">
+        <f t="shared" ref="AC17" si="3">AC15+AC16</f>
         <v>10</v>
       </c>
-      <c r="T11" s="5">
-        <f t="shared" ref="T11" si="2">T9+T10</f>
+      <c r="AD17" s="5">
+        <f t="shared" ref="AD17" si="4">AD15+AD16</f>
         <v>7.5</v>
       </c>
-      <c r="U11" s="5">
-        <f t="shared" ref="U11" si="3">U9+U10</f>
+      <c r="AE17" s="5">
+        <f t="shared" ref="AE17" si="5">AE15+AE16</f>
         <v>7.5</v>
       </c>
-      <c r="V11" s="5">
-        <f t="shared" ref="V11" si="4">V9+V10</f>
+      <c r="AF17" s="5">
+        <f t="shared" ref="AF17" si="6">AF15+AF16</f>
         <v>5</v>
       </c>
-      <c r="W11" s="5">
-        <f t="shared" ref="W11" si="5">W9+W10</f>
+      <c r="AG17" s="5">
+        <f t="shared" ref="AG17" si="7">AG15+AG16</f>
         <v>0</v>
       </c>
-      <c r="X11" s="5">
-        <f t="shared" ref="X11" si="6">X9+X10</f>
+      <c r="AH17" s="5">
+        <f t="shared" ref="AH17" si="8">AH15+AH16</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="5">
-        <f t="shared" ref="Y11" si="7">Y9+Y10</f>
-        <v>-5</v>
-      </c>
-      <c r="Z11" s="5">
-        <f t="shared" ref="Z11" si="8">Z9+Z10</f>
+      <c r="AI17" s="5">
+        <f t="shared" ref="AI17" si="9">AI15+AI16</f>
+        <v>-5</v>
+      </c>
+      <c r="AJ17" s="5">
+        <f t="shared" ref="AJ17" si="10">AJ15+AJ16</f>
         <v>-7.5</v>
       </c>
-      <c r="AA11" s="5">
-        <f t="shared" ref="AA11" si="9">AA9+AA10</f>
+      <c r="AK17" s="5">
+        <f t="shared" ref="AK17" si="11">AK15+AK16</f>
         <v>-7.5</v>
       </c>
-      <c r="AB11" s="5">
-        <f t="shared" ref="AB11" si="10">AB9+AB10</f>
+      <c r="AL17" s="5">
+        <f t="shared" ref="AL17" si="12">AL15+AL16</f>
         <v>-10</v>
       </c>
-      <c r="AC11" s="5">
-        <f t="shared" ref="AC11" si="11">AC9+AC10</f>
+      <c r="AM17" s="5">
+        <f t="shared" ref="AM17" si="13">AM15+AM16</f>
         <v>-7.5</v>
       </c>
-      <c r="AD11" s="5">
-        <f t="shared" ref="AD11" si="12">AD9+AD10</f>
+      <c r="AN17" s="5">
+        <f t="shared" ref="AN17" si="14">AN15+AN16</f>
         <v>-7.5</v>
       </c>
-      <c r="AE11" s="5">
-        <f t="shared" ref="AE11" si="13">AE9+AE10</f>
-        <v>-5</v>
-      </c>
-      <c r="AF11" s="5">
-        <f t="shared" ref="AF11" si="14">AF9+AF10</f>
+      <c r="AO17" s="5">
+        <f t="shared" ref="AO17" si="15">AO15+AO16</f>
+        <v>-5</v>
+      </c>
+      <c r="AP17" s="5">
+        <f t="shared" ref="AP17" si="16">AP15+AP16</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="5">
-        <f t="shared" ref="AG11" si="15">AG9+AG10</f>
+      <c r="AQ17" s="5">
+        <f t="shared" ref="AQ17:AT17" si="17">AQ15+AQ16</f>
         <v>0</v>
+      </c>
+      <c r="AR17" s="5">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AS17" s="5">
+        <f t="shared" si="17"/>
+        <v>7.5</v>
+      </c>
+      <c r="AT17" s="5">
+        <f t="shared" si="17"/>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
